--- a/data files/Purchase Order/bio lab.xlsx
+++ b/data files/Purchase Order/bio lab.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327E3CBB-6B9E-4BAA-BDC3-82415BCE349B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D07D98-17B9-47E1-A615-7A05D3368189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>To,</t>
   </si>
@@ -111,10 +111,13 @@
     <t>Item Name</t>
   </si>
   <si>
-    <t xml:space="preserve">      Qty.     </t>
-  </si>
-  <si>
     <t>Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      size/description.     </t>
+  </si>
+  <si>
+    <t>Qty</t>
   </si>
 </sst>
 </file>
@@ -623,8 +626,8 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="74" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,12 +680,14 @@
         <v>30</v>
       </c>
       <c r="C5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">

--- a/data files/Purchase Order/bio lab.xlsx
+++ b/data files/Purchase Order/bio lab.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D07D98-17B9-47E1-A615-7A05D3368189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82915252-175C-4822-8E13-D776F16EF64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>To,</t>
   </si>
@@ -78,12 +78,6 @@
     <t>10gm</t>
   </si>
   <si>
-    <t>Face Wash</t>
-  </si>
-  <si>
-    <t>neem</t>
-  </si>
-  <si>
     <t>Balaji Surgicals, Haldwani</t>
   </si>
   <si>
@@ -118,6 +112,9 @@
   </si>
   <si>
     <t>Qty</t>
+  </si>
+  <si>
+    <t>Face Wash Aloewera</t>
   </si>
 </sst>
 </file>
@@ -626,35 +623,35 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="74" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="G1" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -663,34 +660,34 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="E5" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>33</v>
-      </c>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="s">
         <v>2</v>
@@ -703,7 +700,7 @@
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
         <v>2</v>
@@ -714,9 +711,11 @@
       <c r="D7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E7" s="19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
         <v>16</v>
@@ -729,27 +728,27 @@
       </c>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
         <v>6</v>
@@ -762,7 +761,7 @@
       </c>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>15</v>
@@ -773,9 +772,11 @@
       <c r="D12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E12" s="19">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>15</v>
@@ -786,9 +787,11 @@
       <c r="D13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E13" s="19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>15</v>
@@ -799,16 +802,18 @@
       <c r="D14" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E14" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>10</v>
@@ -821,14 +826,14 @@
       </c>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
         <v>12</v>
@@ -839,9 +844,11 @@
       <c r="D18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E18" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>12</v>
@@ -852,9 +859,11 @@
       <c r="D19" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E19" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>12</v>
@@ -865,42 +874,46 @@
       <c r="D20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E20" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>21</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C21" s="20"/>
       <c r="D21" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="21"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E21" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="21"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E22" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -909,57 +922,57 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="34" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
     </row>
-    <row r="38" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
@@ -975,7 +988,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
